--- a/old_vs_new_records.xlsx
+++ b/old_vs_new_records.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6D563-1EE9-4496-BC91-0D1551B0CDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vkxTp5I8hc/nE9i0tYhpyCY04DDW8DtlU1BCbwylDJc="/>
     </ext>
@@ -512,17 +532,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>LITTLE RINGED PLOVER-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>CHARADRIUS DUBIUS CURONICUS</t>
     </r>
@@ -530,17 +550,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>LITTLE RINGED PLOVER-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>CHARADRIUS DUBIUS JERDONI</t>
     </r>
@@ -548,17 +568,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>KENTISH PLOVER-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>CHARADRIUS ALEXANDRINUS SEEBOHMI</t>
     </r>
@@ -566,17 +586,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>KENTISH PLOVER-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>CHARADRIUS ALEXANDRINUS ALEXANDRINUS</t>
     </r>
@@ -1100,17 +1120,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>BARN SWALLOW-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>HIRUNDO RUSTICA</t>
     </r>
@@ -1118,17 +1138,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>BARN SWALLOW-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>HIRUNDO RUSTICA TYTLERI</t>
     </r>
@@ -1136,17 +1156,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>RED RUMPED SWALLOW-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>HIRUNDO DAURICA 1</t>
     </r>
@@ -1154,17 +1174,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>RED RUMPED SWALLOW-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>HIRUNDO DAURICA 2</t>
     </r>
@@ -1178,17 +1198,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>WESTERN YELLOW WAGTAIL-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>MOTACILLA FLAVA THUNBERGI</t>
     </r>
@@ -1196,17 +1216,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>WESTERN YELLOW WAGTAIL-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>MOTACILLA FLAVA LUTEA</t>
     </r>
@@ -1214,17 +1234,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>WESTERN YELLOW WAGTAIL-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>MOTACILLA FLAVA BEEMA</t>
     </r>
@@ -1232,17 +1252,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>EASTERN YELLOW WAGTAIL-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>MOTACILLA TSHUSHENSIS</t>
     </r>
@@ -1640,17 +1660,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>EUROPEAN GOLDEN ORIOLE-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>ORIOLUS ORIOLUS</t>
     </r>
@@ -1658,17 +1678,17 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
       </rPr>
       <t>INDIAN GOLDEN ORIOLE-</t>
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Marker Felt"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
       </rPr>
       <t>ORIOLUS KUNDOO</t>
     </r>
@@ -1737,32 +1757,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Marker Felt"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1800,9 +1828,21 @@
         <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1816,12 +1856,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1833,6 +1875,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1841,63 +1885,59 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2087,31 +2127,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.43"/>
-    <col customWidth="1" min="2" max="2" width="7.71"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="4.0"/>
-    <col customWidth="1" min="5" max="5" width="3.86"/>
-    <col customWidth="1" min="6" max="6" width="7.71"/>
-    <col customWidth="1" min="7" max="7" width="3.86"/>
-    <col customWidth="1" min="8" max="8" width="30.86"/>
-    <col customWidth="1" min="9" max="26" width="8.71"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2119,19 +2161,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="3">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +2197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2206,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2215,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2224,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2191,7 +2233,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2200,7 +2242,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2209,7 +2251,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2218,7 +2260,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2269,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2236,7 +2278,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2245,7 +2287,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2296,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2263,7 +2305,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2272,7 +2314,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2323,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2290,7 +2332,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2299,72 +2341,72 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -2373,7 +2415,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -2382,7 +2424,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,7 +2433,7 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2442,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2409,7 +2451,7 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2418,7 +2460,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -2427,85 +2469,85 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2514,20 +2556,20 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
@@ -2536,7 +2578,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -2545,46 +2587,46 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="8">
-        <v>1.0</v>
+      <c r="D45" s="7">
+        <v>1</v>
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2593,20 +2635,20 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="8">
-        <v>1.0</v>
+      <c r="D47" s="7">
+        <v>1</v>
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
@@ -2615,7 +2657,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
@@ -2624,20 +2666,20 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C50" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
@@ -2646,7 +2688,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -2655,20 +2697,20 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C53" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -2677,7 +2719,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -2686,7 +2728,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,7 +2737,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>58</v>
       </c>
@@ -2704,20 +2746,20 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>60</v>
       </c>
@@ -2726,7 +2768,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>61</v>
       </c>
@@ -2735,7 +2777,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -2744,7 +2786,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
@@ -2753,7 +2795,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
@@ -2762,7 +2804,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -2771,7 +2813,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
@@ -2780,7 +2822,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
@@ -2789,20 +2831,20 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C67" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
@@ -2811,7 +2853,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
@@ -2820,7 +2862,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -2829,7 +2871,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -2838,7 +2880,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
@@ -2847,7 +2889,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2898,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
@@ -2865,7 +2907,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
@@ -2874,7 +2916,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,7 +2925,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
@@ -2892,7 +2934,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -2901,7 +2943,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
@@ -2910,7 +2952,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
@@ -2919,7 +2961,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
@@ -2928,20 +2970,20 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
@@ -2950,7 +2992,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
@@ -2959,20 +3001,20 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C85" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -2981,7 +3023,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
@@ -2990,7 +3032,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
@@ -2999,7 +3041,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
@@ -3008,7 +3050,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -3017,7 +3059,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3026,33 +3068,29 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="7">
-        <v>1.0</v>
-      </c>
+      <c r="C93" s="3"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -3061,7 +3099,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
@@ -3070,7 +3108,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3079,7 +3117,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
@@ -3088,20 +3126,20 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C98" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
@@ -3110,7 +3148,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -3119,7 +3157,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
@@ -3128,7 +3166,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
@@ -3137,7 +3175,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3146,20 +3184,20 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
@@ -3168,7 +3206,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
@@ -3177,7 +3215,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
@@ -3186,7 +3224,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
@@ -3195,7 +3233,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
@@ -3204,7 +3242,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -3213,7 +3251,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
@@ -3222,7 +3260,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3231,7 +3269,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3240,7 +3278,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
@@ -3249,7 +3287,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
@@ -3258,7 +3296,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
@@ -3267,7 +3305,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
@@ -3276,7 +3314,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -3285,7 +3323,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
@@ -3294,7 +3332,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3303,7 +3341,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
@@ -3312,7 +3350,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>123</v>
       </c>
@@ -3321,7 +3359,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>124</v>
       </c>
@@ -3330,7 +3368,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>125</v>
       </c>
@@ -3339,7 +3377,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>126</v>
       </c>
@@ -3348,7 +3386,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>127</v>
       </c>
@@ -3357,7 +3395,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>128</v>
       </c>
@@ -3366,7 +3404,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>129</v>
       </c>
@@ -3375,7 +3413,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
@@ -3384,7 +3422,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
@@ -3393,7 +3431,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
@@ -3402,7 +3440,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
@@ -3411,7 +3449,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
@@ -3420,7 +3458,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
@@ -3429,20 +3467,20 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C135" s="10">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C135" s="9">
+        <v>1</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
@@ -3451,20 +3489,20 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B137" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
@@ -3473,7 +3511,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
@@ -3482,7 +3520,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>141</v>
       </c>
@@ -3491,7 +3529,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>142</v>
       </c>
@@ -3500,20 +3538,20 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="7">
-        <v>1.0</v>
+      <c r="C142" s="3">
+        <v>1</v>
       </c>
       <c r="D142" s="1"/>
-      <c r="E142" s="11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
+      <c r="E142" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
@@ -3522,20 +3560,20 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B144" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C144" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>146</v>
       </c>
@@ -3544,7 +3582,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>147</v>
       </c>
@@ -3553,7 +3591,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>148</v>
       </c>
@@ -3562,7 +3600,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>149</v>
       </c>
@@ -3571,7 +3609,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>150</v>
       </c>
@@ -3580,7 +3618,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>151</v>
       </c>
@@ -3589,7 +3627,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>152</v>
       </c>
@@ -3598,20 +3636,20 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>154</v>
       </c>
@@ -3620,7 +3658,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>155</v>
       </c>
@@ -3629,7 +3667,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>156</v>
       </c>
@@ -3638,7 +3676,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>157</v>
       </c>
@@ -3647,7 +3685,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>158</v>
       </c>
@@ -3656,7 +3694,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>159</v>
       </c>
@@ -3665,7 +3703,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>160</v>
       </c>
@@ -3674,7 +3712,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>161</v>
       </c>
@@ -3683,7 +3721,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>162</v>
       </c>
@@ -3692,7 +3730,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>163</v>
       </c>
@@ -3701,7 +3739,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>164</v>
       </c>
@@ -3710,7 +3748,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>165</v>
       </c>
@@ -3719,7 +3757,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>166</v>
       </c>
@@ -3728,7 +3766,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>167</v>
       </c>
@@ -3737,7 +3775,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>168</v>
       </c>
@@ -3746,7 +3784,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>169</v>
       </c>
@@ -3755,7 +3793,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>170</v>
       </c>
@@ -3764,7 +3802,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>171</v>
       </c>
@@ -3773,7 +3811,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>172</v>
       </c>
@@ -3782,7 +3820,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>173</v>
       </c>
@@ -3791,7 +3829,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>174</v>
       </c>
@@ -3800,7 +3838,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>175</v>
       </c>
@@ -3809,7 +3847,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -3818,7 +3856,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>177</v>
       </c>
@@ -3827,7 +3865,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>178</v>
       </c>
@@ -3836,20 +3874,20 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B178" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="8">
-        <v>1.0</v>
+      <c r="D178" s="7">
+        <v>1</v>
       </c>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>180</v>
       </c>
@@ -3858,7 +3896,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>181</v>
       </c>
@@ -3867,7 +3905,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>182</v>
       </c>
@@ -3876,7 +3914,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
@@ -3885,7 +3923,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>184</v>
       </c>
@@ -3894,7 +3932,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -3903,7 +3941,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -3912,7 +3950,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>187</v>
       </c>
@@ -3921,7 +3959,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>188</v>
       </c>
@@ -3930,7 +3968,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>189</v>
       </c>
@@ -3939,7 +3977,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>190</v>
       </c>
@@ -3948,7 +3986,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -3957,7 +3995,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>192</v>
       </c>
@@ -3966,7 +4004,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>193</v>
       </c>
@@ -3975,7 +4013,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>194</v>
       </c>
@@ -3984,7 +4022,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>195</v>
       </c>
@@ -3993,7 +4031,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -4002,7 +4040,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>197</v>
       </c>
@@ -4011,7 +4049,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -4020,7 +4058,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>199</v>
       </c>
@@ -4029,7 +4067,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>200</v>
       </c>
@@ -4038,7 +4076,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>201</v>
       </c>
@@ -4047,7 +4085,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>202</v>
       </c>
@@ -4056,7 +4094,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>203</v>
       </c>
@@ -4065,7 +4103,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>204</v>
       </c>
@@ -4074,7 +4112,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>205</v>
       </c>
@@ -4083,7 +4121,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>206</v>
       </c>
@@ -4092,7 +4130,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>207</v>
       </c>
@@ -4101,7 +4139,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -4110,7 +4148,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>209</v>
       </c>
@@ -4119,7 +4157,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>210</v>
       </c>
@@ -4128,7 +4166,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>211</v>
       </c>
@@ -4137,7 +4175,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -4146,7 +4184,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
         <v>213</v>
       </c>
@@ -4155,7 +4193,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
         <v>214</v>
       </c>
@@ -4164,7 +4202,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
         <v>215</v>
       </c>
@@ -4173,7 +4211,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
         <v>216</v>
       </c>
@@ -4182,7 +4220,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
         <v>217</v>
       </c>
@@ -4191,7 +4229,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
         <v>218</v>
       </c>
@@ -4200,7 +4238,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
         <v>219</v>
       </c>
@@ -4209,20 +4247,20 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B219" s="2"/>
-      <c r="C219" s="7">
-        <v>1.0</v>
+      <c r="C219" s="3">
+        <v>1</v>
       </c>
       <c r="D219" s="1"/>
-      <c r="E219" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+      <c r="E219" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -4231,7 +4269,7 @@
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
         <v>222</v>
       </c>
@@ -4240,7 +4278,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>223</v>
       </c>
@@ -4249,7 +4287,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
         <v>224</v>
       </c>
@@ -4258,7 +4296,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -4267,7 +4305,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>226</v>
       </c>
@@ -4276,7 +4314,7 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
         <v>227</v>
       </c>
@@ -4285,7 +4323,7 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
         <v>228</v>
       </c>
@@ -4294,7 +4332,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
         <v>229</v>
       </c>
@@ -4303,7 +4341,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
         <v>230</v>
       </c>
@@ -4312,7 +4350,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
         <v>231</v>
       </c>
@@ -4321,7 +4359,7 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>232</v>
       </c>
@@ -4330,20 +4368,20 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B232" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C232" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
         <v>234</v>
       </c>
@@ -4352,7 +4390,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
         <v>235</v>
       </c>
@@ -4361,7 +4399,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
         <v>236</v>
       </c>
@@ -4370,7 +4408,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
         <v>237</v>
       </c>
@@ -4379,7 +4417,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
         <v>238</v>
       </c>
@@ -4388,33 +4426,33 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D238" s="1"/>
       <c r="E238" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B239" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C239" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>241</v>
       </c>
@@ -4423,7 +4461,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>242</v>
       </c>
@@ -4432,7 +4470,7 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
         <v>243</v>
       </c>
@@ -4441,20 +4479,20 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C243" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>245</v>
       </c>
@@ -4463,33 +4501,33 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B245" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C245" s="3"/>
-      <c r="D245" s="8">
-        <v>1.0</v>
+      <c r="D245" s="7">
+        <v>1</v>
       </c>
       <c r="E245" s="1"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B246" s="2"/>
-      <c r="C246" s="7">
-        <v>1.0</v>
+      <c r="C246" s="3">
+        <v>1</v>
       </c>
       <c r="D246" s="1"/>
-      <c r="E246" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
+      <c r="E246" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>248</v>
       </c>
@@ -4498,7 +4536,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>249</v>
       </c>
@@ -4507,7 +4545,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>250</v>
       </c>
@@ -4516,20 +4554,20 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B250" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C250" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>252</v>
       </c>
@@ -4538,7 +4576,7 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>253</v>
       </c>
@@ -4547,20 +4585,20 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B253" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C253" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>255</v>
       </c>
@@ -4569,7 +4607,7 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>256</v>
       </c>
@@ -4578,7 +4616,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>257</v>
       </c>
@@ -4587,7 +4625,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
         <v>258</v>
       </c>
@@ -4596,7 +4634,7 @@
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
         <v>259</v>
       </c>
@@ -4605,20 +4643,20 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B259" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C259" s="3"/>
-      <c r="D259" s="8">
-        <v>1.0</v>
+      <c r="D259" s="7">
+        <v>1</v>
       </c>
       <c r="E259" s="1"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
         <v>261</v>
       </c>
@@ -4627,20 +4665,20 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B261" s="12">
-        <v>1.0</v>
+      <c r="B261" s="2">
+        <v>1</v>
       </c>
       <c r="C261" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
         <v>263</v>
       </c>
@@ -4649,7 +4687,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
         <v>264</v>
       </c>
@@ -4658,7 +4696,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
         <v>265</v>
       </c>
@@ -4667,7 +4705,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
         <v>266</v>
       </c>
@@ -4676,7 +4714,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
         <v>267</v>
       </c>
@@ -4685,7 +4723,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
         <v>268</v>
       </c>
@@ -4694,7 +4732,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
         <v>269</v>
       </c>
@@ -4703,20 +4741,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B269" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C269" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
         <v>271</v>
       </c>
@@ -4725,20 +4763,20 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B271" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C271" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
         <v>273</v>
       </c>
@@ -4747,7 +4785,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>274</v>
       </c>
@@ -4756,7 +4794,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>275</v>
       </c>
@@ -4765,7 +4803,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>276</v>
       </c>
@@ -4774,7 +4812,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>277</v>
       </c>
@@ -4783,7 +4821,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -4792,20 +4830,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B278" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C278" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>280</v>
       </c>
@@ -4814,7 +4852,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
         <v>281</v>
       </c>
@@ -4823,7 +4861,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
         <v>282</v>
       </c>
@@ -4832,7 +4870,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
         <v>283</v>
       </c>
@@ -4841,7 +4879,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1">
       <c r="A283" s="1" t="s">
         <v>284</v>
       </c>
@@ -4850,7 +4888,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -4859,7 +4897,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
         <v>286</v>
       </c>
@@ -4868,7 +4906,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>287</v>
       </c>
@@ -4877,7 +4915,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>288</v>
       </c>
@@ -4886,7 +4924,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -4895,7 +4933,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
         <v>290</v>
       </c>
@@ -4904,46 +4942,46 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B290" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C290" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B291" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C291" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B292" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="8">
-        <v>1.0</v>
+      <c r="D292" s="7">
+        <v>1</v>
       </c>
       <c r="E292" s="1"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
         <v>294</v>
       </c>
@@ -4952,7 +4990,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
         <v>295</v>
       </c>
@@ -4961,7 +4999,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
         <v>296</v>
       </c>
@@ -4970,7 +5008,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
         <v>297</v>
       </c>
@@ -4979,20 +5017,20 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B297" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C297" s="3"/>
-      <c r="D297" s="8">
-        <v>1.0</v>
+      <c r="D297" s="7">
+        <v>1</v>
       </c>
       <c r="E297" s="1"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
         <v>299</v>
       </c>
@@ -5001,7 +5039,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
         <v>300</v>
       </c>
@@ -5010,7 +5048,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
         <v>301</v>
       </c>
@@ -5019,20 +5057,20 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B301" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C301" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
         <v>303</v>
       </c>
@@ -5041,33 +5079,33 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B303" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C303" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B304" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C304" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>306</v>
       </c>
@@ -5076,20 +5114,20 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B306" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C306" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C306" s="3">
+        <v>1</v>
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>308</v>
       </c>
@@ -5098,7 +5136,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>309</v>
       </c>
@@ -5107,7 +5145,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>310</v>
       </c>
@@ -5116,20 +5154,20 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B310" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C310" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
         <v>312</v>
       </c>
@@ -5138,20 +5176,20 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B312" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C312" s="3"/>
-      <c r="D312" s="8">
-        <v>1.0</v>
+      <c r="D312" s="7">
+        <v>1</v>
       </c>
       <c r="E312" s="1"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>314</v>
       </c>
@@ -5160,20 +5198,20 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B314" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C314" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>316</v>
       </c>
@@ -5182,20 +5220,20 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B316" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C316" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>318</v>
       </c>
@@ -5204,7 +5242,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
         <v>319</v>
       </c>
@@ -5213,7 +5251,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
         <v>320</v>
       </c>
@@ -5222,7 +5260,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
         <v>321</v>
       </c>
@@ -5231,7 +5269,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
         <v>322</v>
       </c>
@@ -5240,7 +5278,7 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>323</v>
       </c>
@@ -5249,7 +5287,7 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>324</v>
       </c>
@@ -5258,20 +5296,20 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B324" s="12">
-        <v>1.0</v>
+      <c r="B324" s="2">
+        <v>1</v>
       </c>
       <c r="C324" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>326</v>
       </c>
@@ -5280,7 +5318,7 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>327</v>
       </c>
@@ -5289,7 +5327,7 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>328</v>
       </c>
@@ -5298,20 +5336,20 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B328" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C328" s="3"/>
-      <c r="D328" s="8">
-        <v>1.0</v>
+      <c r="D328" s="7">
+        <v>1</v>
       </c>
       <c r="E328" s="1"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>330</v>
       </c>
@@ -5320,7 +5358,7 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>331</v>
       </c>
@@ -5329,7 +5367,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>332</v>
       </c>
@@ -5338,7 +5376,7 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>333</v>
       </c>
@@ -5347,7 +5385,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>334</v>
       </c>
@@ -5356,7 +5394,7 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>335</v>
       </c>
@@ -5365,7 +5403,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>336</v>
       </c>
@@ -5374,7 +5412,7 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>337</v>
       </c>
@@ -5383,7 +5421,7 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>338</v>
       </c>
@@ -5392,7 +5430,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>339</v>
       </c>
@@ -5401,20 +5439,20 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B339" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C339" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>341</v>
       </c>
@@ -5423,42 +5461,42 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B341" s="13">
-        <v>1.0</v>
+      <c r="B341" s="12">
+        <v>1</v>
       </c>
       <c r="C341" s="14"/>
       <c r="D341" s="15">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E341" s="1"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B342" s="16"/>
-      <c r="C342" s="16"/>
-      <c r="D342" s="16"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
       <c r="E342" s="1"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>345</v>
       </c>
@@ -5467,7 +5505,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
         <v>346</v>
       </c>
@@ -5476,7 +5514,7 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
         <v>347</v>
       </c>
@@ -5485,7 +5523,7 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
         <v>348</v>
       </c>
@@ -5494,20 +5532,20 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D348" s="1"/>
       <c r="E348" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>350</v>
       </c>
@@ -5516,7 +5554,7 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="1:5" ht="15.75" customHeight="1">
       <c r="A350" s="1" t="s">
         <v>351</v>
       </c>
@@ -5525,20 +5563,20 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="1:5" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
         <v>352</v>
       </c>
       <c r="B351" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C351" s="3"/>
-      <c r="D351" s="8">
-        <v>1.0</v>
+      <c r="D351" s="7">
+        <v>1</v>
       </c>
       <c r="E351" s="1"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
         <v>353</v>
       </c>
@@ -5547,7 +5585,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1">
       <c r="A353" s="1" t="s">
         <v>354</v>
       </c>
@@ -5556,7 +5594,7 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="1:5" ht="15.75" customHeight="1">
       <c r="A354" s="1" t="s">
         <v>355</v>
       </c>
@@ -5565,7 +5603,7 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="1:5" ht="15.75" customHeight="1">
       <c r="A355" s="1" t="s">
         <v>356</v>
       </c>
@@ -5574,7 +5612,7 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="1:5" ht="15.75" customHeight="1">
       <c r="A356" s="1" t="s">
         <v>357</v>
       </c>
@@ -5583,7 +5621,7 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="1:5" ht="15.75" customHeight="1">
       <c r="A357" s="1" t="s">
         <v>358</v>
       </c>
@@ -5592,20 +5630,20 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="1:5" ht="15.75" customHeight="1">
       <c r="A358" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B358" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C358" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1">
       <c r="A359" s="1" t="s">
         <v>360</v>
       </c>
@@ -5614,7 +5652,7 @@
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="1:5" ht="15.75" customHeight="1">
       <c r="A360" s="1" t="s">
         <v>361</v>
       </c>
@@ -5623,20 +5661,20 @@
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="1:5" ht="15.75" customHeight="1">
       <c r="A361" s="1" t="s">
         <v>362</v>
       </c>
       <c r="B361" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C361" s="3"/>
-      <c r="D361" s="8">
-        <v>1.0</v>
+      <c r="D361" s="7">
+        <v>1</v>
       </c>
       <c r="E361" s="1"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="1:5" ht="15.75" customHeight="1">
       <c r="A362" s="1" t="s">
         <v>363</v>
       </c>
@@ -5645,7 +5683,7 @@
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="1:5" ht="15.75" customHeight="1">
       <c r="A363" s="1" t="s">
         <v>364</v>
       </c>
@@ -5654,7 +5692,7 @@
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="1:5" ht="15.75" customHeight="1">
       <c r="A364" s="1" t="s">
         <v>365</v>
       </c>
@@ -5663,7 +5701,7 @@
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="1:5" ht="15.75" customHeight="1">
       <c r="A365" s="1" t="s">
         <v>366</v>
       </c>
@@ -5672,7 +5710,7 @@
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="1:5" ht="15.75" customHeight="1">
       <c r="A366" s="1" t="s">
         <v>367</v>
       </c>
@@ -5681,33 +5719,33 @@
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="1:5" ht="15.75" customHeight="1">
       <c r="A367" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B367" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C367" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C367" s="3">
+        <v>1</v>
       </c>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="1:5" ht="15.75" customHeight="1">
       <c r="A368" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B368" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C368" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="1:5" ht="15.75" customHeight="1">
       <c r="A369" s="1" t="s">
         <v>370</v>
       </c>
@@ -5716,7 +5754,7 @@
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1">
       <c r="A370" s="1" t="s">
         <v>371</v>
       </c>
@@ -5725,20 +5763,20 @@
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="1:5" ht="15.75" customHeight="1">
       <c r="A371" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B371" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C371" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C371" s="3">
+        <v>1</v>
       </c>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1">
       <c r="A372" s="1" t="s">
         <v>373</v>
       </c>
@@ -5747,7 +5785,7 @@
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1">
       <c r="A373" s="1" t="s">
         <v>374</v>
       </c>
@@ -5756,20 +5794,20 @@
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1">
       <c r="A374" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B374" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C374" s="3"/>
-      <c r="D374" s="8">
-        <v>1.0</v>
+      <c r="D374" s="7">
+        <v>1</v>
       </c>
       <c r="E374" s="1"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1">
       <c r="A375" s="1" t="s">
         <v>376</v>
       </c>
@@ -5778,7 +5816,7 @@
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="1:5" ht="15.75" customHeight="1">
       <c r="A376" s="1" t="s">
         <v>377</v>
       </c>
@@ -5787,20 +5825,20 @@
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="1:5" ht="15.75" customHeight="1">
       <c r="A377" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B377" s="2"/>
-      <c r="C377" s="7">
-        <v>1.0</v>
+      <c r="C377" s="3">
+        <v>1</v>
       </c>
       <c r="D377" s="1"/>
-      <c r="E377" s="9">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
+      <c r="E377" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" customHeight="1">
       <c r="A378" s="1" t="s">
         <v>379</v>
       </c>
@@ -5809,7 +5847,7 @@
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="1:5" ht="15.75" customHeight="1">
       <c r="A379" s="1" t="s">
         <v>380</v>
       </c>
@@ -5818,7 +5856,7 @@
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="1:5" ht="15.75" customHeight="1">
       <c r="A380" s="1" t="s">
         <v>381</v>
       </c>
@@ -5827,20 +5865,20 @@
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1">
       <c r="A381" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B381" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C381" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C381" s="3">
+        <v>1</v>
       </c>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1">
       <c r="A382" s="1" t="s">
         <v>383</v>
       </c>
@@ -5849,7 +5887,7 @@
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1">
       <c r="A383" s="1" t="s">
         <v>384</v>
       </c>
@@ -5858,7 +5896,7 @@
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="1:5" ht="15.75" customHeight="1">
       <c r="A384" s="1" t="s">
         <v>385</v>
       </c>
@@ -5867,7 +5905,7 @@
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="1:5" ht="15.75" customHeight="1">
       <c r="A385" s="1" t="s">
         <v>386</v>
       </c>
@@ -5876,20 +5914,20 @@
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1">
       <c r="A386" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B386" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C386" s="10">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C386" s="9">
+        <v>1</v>
       </c>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1">
       <c r="A387" s="1" t="s">
         <v>388</v>
       </c>
@@ -5898,7 +5936,7 @@
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="1:5" ht="15.75" customHeight="1">
       <c r="A388" s="1" t="s">
         <v>389</v>
       </c>
@@ -5907,7 +5945,7 @@
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="1:5" ht="15.75" customHeight="1">
       <c r="A389" s="1" t="s">
         <v>390</v>
       </c>
@@ -5916,7 +5954,7 @@
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1">
       <c r="A390" s="1" t="s">
         <v>391</v>
       </c>
@@ -5925,7 +5963,7 @@
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1">
       <c r="A391" s="1" t="s">
         <v>392</v>
       </c>
@@ -5934,7 +5972,7 @@
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1">
       <c r="A392" s="1" t="s">
         <v>393</v>
       </c>
@@ -5943,7 +5981,7 @@
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="1:5" ht="15.75" customHeight="1">
       <c r="A393" s="1" t="s">
         <v>394</v>
       </c>
@@ -5952,7 +5990,7 @@
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="1:5" ht="15.75" customHeight="1">
       <c r="A394" s="1" t="s">
         <v>395</v>
       </c>
@@ -5961,7 +5999,7 @@
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="1:5" ht="15.75" customHeight="1">
       <c r="A395" s="1" t="s">
         <v>396</v>
       </c>
@@ -5970,7 +6008,7 @@
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="1:5" ht="15.75" customHeight="1">
       <c r="A396" s="1" t="s">
         <v>397</v>
       </c>
@@ -5979,7 +6017,7 @@
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="1:5" ht="15.75" customHeight="1">
       <c r="A397" s="1" t="s">
         <v>398</v>
       </c>
@@ -5988,7 +6026,7 @@
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="1:5" ht="15.75" customHeight="1">
       <c r="A398" s="1" t="s">
         <v>399</v>
       </c>
@@ -5997,7 +6035,7 @@
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="1:5" ht="15.75" customHeight="1">
       <c r="A399" s="1" t="s">
         <v>400</v>
       </c>
@@ -6006,7 +6044,7 @@
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="1:5" ht="15.75" customHeight="1">
       <c r="A400" s="1" t="s">
         <v>401</v>
       </c>
@@ -6015,33 +6053,33 @@
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="1:5" ht="15.75" customHeight="1">
       <c r="A401" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B401" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C401" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="1:5" ht="15.75" customHeight="1">
       <c r="A402" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B402" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C402" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C402" s="3">
+        <v>1</v>
       </c>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="1:5" ht="15.75" customHeight="1">
       <c r="A403" s="1" t="s">
         <v>404</v>
       </c>
@@ -6050,7 +6088,7 @@
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="1:5" ht="15.75" customHeight="1">
       <c r="A404" s="1" t="s">
         <v>405</v>
       </c>
@@ -6059,7 +6097,7 @@
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="1:5" ht="15.75" customHeight="1">
       <c r="A405" s="1" t="s">
         <v>406</v>
       </c>
@@ -6068,7 +6106,7 @@
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="1:5" ht="15.75" customHeight="1">
       <c r="A406" s="1" t="s">
         <v>407</v>
       </c>
@@ -6077,7 +6115,7 @@
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="1:5" ht="15.75" customHeight="1">
       <c r="A407" s="1" t="s">
         <v>408</v>
       </c>
@@ -6086,7 +6124,7 @@
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="1:5" ht="15.75" customHeight="1">
       <c r="A408" s="1" t="s">
         <v>409</v>
       </c>
@@ -6095,7 +6133,7 @@
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="1:5" ht="15.75" customHeight="1">
       <c r="A409" s="1" t="s">
         <v>410</v>
       </c>
@@ -6104,20 +6142,20 @@
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="1:5" ht="15.75" customHeight="1">
       <c r="A410" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B410" s="2"/>
       <c r="C410" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D410" s="1"/>
       <c r="E410" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="15.75" customHeight="1">
       <c r="A411" s="1" t="s">
         <v>412</v>
       </c>
@@ -6126,20 +6164,20 @@
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="1:5" ht="15.75" customHeight="1">
       <c r="A412" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B412" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C412" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C412" s="3">
+        <v>1</v>
       </c>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="1:5" ht="15.75" customHeight="1">
       <c r="A413" s="1" t="s">
         <v>414</v>
       </c>
@@ -6148,7 +6186,7 @@
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="1:5" ht="15.75" customHeight="1">
       <c r="A414" s="1" t="s">
         <v>415</v>
       </c>
@@ -6157,7 +6195,7 @@
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="1:5" ht="15.75" customHeight="1">
       <c r="A415" s="1" t="s">
         <v>416</v>
       </c>
@@ -6166,7 +6204,7 @@
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="1:5" ht="15.75" customHeight="1">
       <c r="A416" s="1" t="s">
         <v>417</v>
       </c>
@@ -6175,7 +6213,7 @@
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="1:5" ht="15.75" customHeight="1">
       <c r="A417" s="1" t="s">
         <v>418</v>
       </c>
@@ -6184,7 +6222,7 @@
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="1:5" ht="15.75" customHeight="1">
       <c r="A418" s="1" t="s">
         <v>419</v>
       </c>
@@ -6193,7 +6231,7 @@
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="1:5" ht="15.75" customHeight="1">
       <c r="A419" s="1" t="s">
         <v>420</v>
       </c>
@@ -6202,7 +6240,7 @@
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="1:5" ht="15.75" customHeight="1">
       <c r="A420" s="1" t="s">
         <v>421</v>
       </c>
@@ -6211,7 +6249,7 @@
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="1:5" ht="15.75" customHeight="1">
       <c r="A421" s="1" t="s">
         <v>422</v>
       </c>
@@ -6220,33 +6258,33 @@
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="1:5" ht="15.75" customHeight="1">
       <c r="A422" s="1" t="s">
         <v>423</v>
       </c>
       <c r="B422" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C422" s="3"/>
-      <c r="D422" s="8">
-        <v>1.0</v>
+      <c r="D422" s="7">
+        <v>1</v>
       </c>
       <c r="E422" s="1"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="1:5" ht="15.75" customHeight="1">
       <c r="A423" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B423" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C423" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="1:5" ht="15.75" customHeight="1">
       <c r="A424" s="1" t="s">
         <v>425</v>
       </c>
@@ -6255,7 +6293,7 @@
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="1:5" ht="15.75" customHeight="1">
       <c r="A425" s="1" t="s">
         <v>426</v>
       </c>
@@ -6264,7 +6302,7 @@
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="1:5" ht="15.75" customHeight="1">
       <c r="A426" s="1" t="s">
         <v>427</v>
       </c>
@@ -6273,7 +6311,7 @@
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="1:5" ht="15.75" customHeight="1">
       <c r="A427" s="1" t="s">
         <v>428</v>
       </c>
@@ -6282,7 +6320,7 @@
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="1:5" ht="15.75" customHeight="1">
       <c r="A428" s="1" t="s">
         <v>429</v>
       </c>
@@ -6291,7 +6329,7 @@
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="1:5" ht="15.75" customHeight="1">
       <c r="A429" s="1" t="s">
         <v>430</v>
       </c>
@@ -6300,7 +6338,7 @@
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="1:5" ht="15.75" customHeight="1">
       <c r="A430" s="1" t="s">
         <v>431</v>
       </c>
@@ -6309,7 +6347,7 @@
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="1:5" ht="15.75" customHeight="1">
       <c r="A431" s="1" t="s">
         <v>432</v>
       </c>
@@ -6318,7 +6356,7 @@
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="1:5" ht="15.75" customHeight="1">
       <c r="A432" s="1" t="s">
         <v>433</v>
       </c>
@@ -6327,7 +6365,7 @@
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="1:5" ht="15.75" customHeight="1">
       <c r="A433" s="1" t="s">
         <v>434</v>
       </c>
@@ -6336,7 +6374,7 @@
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="1:5" ht="15.75" customHeight="1">
       <c r="A434" s="1" t="s">
         <v>435</v>
       </c>
@@ -6345,20 +6383,20 @@
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="1:5" ht="15.75" customHeight="1">
       <c r="A435" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B435" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C435" s="3"/>
-      <c r="D435" s="8">
-        <v>1.0</v>
+      <c r="D435" s="7">
+        <v>1</v>
       </c>
       <c r="E435" s="1"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="1:5" ht="15.75" customHeight="1">
       <c r="A436" s="1" t="s">
         <v>437</v>
       </c>
@@ -6367,7 +6405,7 @@
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="1:5" ht="15.75" customHeight="1">
       <c r="A437" s="1" t="s">
         <v>438</v>
       </c>
@@ -6376,7 +6414,7 @@
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="1:5" ht="15.75" customHeight="1">
       <c r="A438" s="1" t="s">
         <v>439</v>
       </c>
@@ -6385,20 +6423,20 @@
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="1:5" ht="15.75" customHeight="1">
       <c r="A439" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B439" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C439" s="3"/>
-      <c r="D439" s="8">
-        <v>1.0</v>
+      <c r="D439" s="7">
+        <v>1</v>
       </c>
       <c r="E439" s="1"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="1:5" ht="15.75" customHeight="1">
       <c r="A440" s="1" t="s">
         <v>441</v>
       </c>
@@ -6407,7 +6445,7 @@
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="1:5" ht="15.75" customHeight="1">
       <c r="A441" s="1" t="s">
         <v>442</v>
       </c>
@@ -6416,20 +6454,20 @@
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="1:5" ht="15.75" customHeight="1">
       <c r="A442" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B442" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C442" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="1:5" ht="15.75" customHeight="1">
       <c r="A443" s="1" t="s">
         <v>444</v>
       </c>
@@ -6438,7 +6476,7 @@
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="1:5" ht="15.75" customHeight="1">
       <c r="A444" s="1" t="s">
         <v>445</v>
       </c>
@@ -6447,7 +6485,7 @@
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="1:5" ht="15.75" customHeight="1">
       <c r="A445" s="1" t="s">
         <v>446</v>
       </c>
@@ -6456,20 +6494,20 @@
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="1:5" ht="15.75" customHeight="1">
       <c r="A446" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B446" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C446" s="3"/>
-      <c r="D446" s="8">
-        <v>1.0</v>
+      <c r="D446" s="7">
+        <v>1</v>
       </c>
       <c r="E446" s="1"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="1:5" ht="15.75" customHeight="1">
       <c r="A447" s="1" t="s">
         <v>448</v>
       </c>
@@ -6478,7 +6516,7 @@
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="1:5" ht="15.75" customHeight="1">
       <c r="A448" s="1" t="s">
         <v>449</v>
       </c>
@@ -6487,7 +6525,7 @@
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="1:5" ht="15.75" customHeight="1">
       <c r="A449" s="1" t="s">
         <v>450</v>
       </c>
@@ -6496,7 +6534,7 @@
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="1:5" ht="15.75" customHeight="1">
       <c r="A450" s="1" t="s">
         <v>451</v>
       </c>
@@ -6505,7 +6543,7 @@
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="1:5" ht="15.75" customHeight="1">
       <c r="A451" s="1" t="s">
         <v>452</v>
       </c>
@@ -6514,7 +6552,7 @@
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="1:5" ht="15.75" customHeight="1">
       <c r="A452" s="1" t="s">
         <v>453</v>
       </c>
@@ -6523,7 +6561,7 @@
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="1:5" ht="15.75" customHeight="1">
       <c r="A453" s="1" t="s">
         <v>454</v>
       </c>
@@ -6532,7 +6570,7 @@
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="1:5" ht="15.75" customHeight="1">
       <c r="A454" s="1" t="s">
         <v>455</v>
       </c>
@@ -6541,7 +6579,7 @@
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="1:5" ht="15.75" customHeight="1">
       <c r="A455" s="1" t="s">
         <v>456</v>
       </c>
@@ -6550,20 +6588,20 @@
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="1:5" ht="15.75" customHeight="1">
       <c r="A456" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B456" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C456" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="1:5" ht="15.75" customHeight="1">
       <c r="A457" s="1" t="s">
         <v>458</v>
       </c>
@@ -6572,7 +6610,7 @@
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="1:5" ht="15.75" customHeight="1">
       <c r="A458" s="1" t="s">
         <v>459</v>
       </c>
@@ -6581,20 +6619,20 @@
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="1:5" ht="15.75" customHeight="1">
       <c r="A459" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B459" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C459" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C459" s="3">
+        <v>1</v>
       </c>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="1:5" ht="15.75" customHeight="1">
       <c r="A460" s="1" t="s">
         <v>461</v>
       </c>
@@ -6603,20 +6641,20 @@
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="1:5" ht="15.75" customHeight="1">
       <c r="A461" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B461" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C461" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="1:5" ht="15.75" customHeight="1">
       <c r="A462" s="1" t="s">
         <v>463</v>
       </c>
@@ -6625,20 +6663,20 @@
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="1:5" ht="15.75" customHeight="1">
       <c r="A463" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B463" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C463" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="1:5" ht="15.75" customHeight="1">
       <c r="A464" s="1" t="s">
         <v>465</v>
       </c>
@@ -6647,7 +6685,7 @@
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="1:5" ht="15.75" customHeight="1">
       <c r="A465" s="1" t="s">
         <v>466</v>
       </c>
@@ -6656,7 +6694,7 @@
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="1:5" ht="15.75" customHeight="1">
       <c r="A466" s="1" t="s">
         <v>467</v>
       </c>
@@ -6665,7 +6703,7 @@
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="1:5" ht="15.75" customHeight="1">
       <c r="A467" s="1" t="s">
         <v>468</v>
       </c>
@@ -6674,7 +6712,7 @@
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="1:5" ht="15.75" customHeight="1">
       <c r="A468" s="1" t="s">
         <v>469</v>
       </c>
@@ -6683,7 +6721,7 @@
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="1:5" ht="15.75" customHeight="1">
       <c r="A469" s="1" t="s">
         <v>470</v>
       </c>
@@ -6692,7 +6730,7 @@
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="1:5" ht="15.75" customHeight="1">
       <c r="A470" s="1" t="s">
         <v>471</v>
       </c>
@@ -6701,33 +6739,33 @@
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="1:5" ht="15.75" customHeight="1">
       <c r="A471" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B471" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C471" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C471" s="3">
+        <v>1</v>
       </c>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="1:5" ht="15.75" customHeight="1">
       <c r="A472" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B472" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C472" s="7">
-        <v>1.0</v>
+        <v>1</v>
+      </c>
+      <c r="C472" s="3">
+        <v>1</v>
       </c>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="1:5" ht="15.75" customHeight="1">
       <c r="A473" s="1" t="s">
         <v>474</v>
       </c>
@@ -6736,7 +6774,7 @@
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="1:5" ht="15.75" customHeight="1">
       <c r="A474" s="1" t="s">
         <v>475</v>
       </c>
@@ -6745,7 +6783,7 @@
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="1:5" ht="15.75" customHeight="1">
       <c r="A475" s="1" t="s">
         <v>476</v>
       </c>
@@ -6754,7 +6792,7 @@
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="1:5" ht="15.75" customHeight="1">
       <c r="A476" s="1" t="s">
         <v>477</v>
       </c>
@@ -6763,7 +6801,7 @@
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="1:5" ht="15.75" customHeight="1">
       <c r="A477" s="1" t="s">
         <v>478</v>
       </c>
@@ -6772,7 +6810,7 @@
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="1:5" ht="15.75" customHeight="1">
       <c r="A478" s="1" t="s">
         <v>479</v>
       </c>
@@ -6781,7 +6819,7 @@
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="1:5" ht="15.75" customHeight="1">
       <c r="A479" s="1" t="s">
         <v>480</v>
       </c>
@@ -6790,33 +6828,33 @@
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="1:5" ht="15.75" customHeight="1">
       <c r="A480" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B480" s="2"/>
       <c r="C480" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D480" s="1"/>
       <c r="E480" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="15.75" customHeight="1">
       <c r="A481" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B481" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C481" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="1:5" ht="15.75" customHeight="1">
       <c r="A482" s="1" t="s">
         <v>483</v>
       </c>
@@ -6825,7 +6863,7 @@
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="1:5" ht="15.75" customHeight="1">
       <c r="A483" s="1" t="s">
         <v>484</v>
       </c>
@@ -6834,7 +6872,7 @@
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="1:5" ht="15.75" customHeight="1">
       <c r="A484" s="1" t="s">
         <v>485</v>
       </c>
@@ -6843,20 +6881,20 @@
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="1:5" ht="15.75" customHeight="1">
       <c r="A485" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B485" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C485" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="1:5" ht="15.75" customHeight="1">
       <c r="A486" s="1" t="s">
         <v>487</v>
       </c>
@@ -6865,7 +6903,7 @@
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="1:5" ht="15.75" customHeight="1">
       <c r="A487" s="1" t="s">
         <v>488</v>
       </c>
@@ -6874,7 +6912,7 @@
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="1:5" ht="15.75" customHeight="1">
       <c r="A488" s="1" t="s">
         <v>489</v>
       </c>
@@ -6883,7 +6921,7 @@
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="1:5" ht="15.75" customHeight="1">
       <c r="A489" s="1" t="s">
         <v>490</v>
       </c>
@@ -6892,7 +6930,7 @@
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="1:5" ht="15.75" customHeight="1">
       <c r="A490" s="1" t="s">
         <v>491</v>
       </c>
@@ -6901,7 +6939,7 @@
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="1:5" ht="15.75" customHeight="1">
       <c r="A491" s="1" t="s">
         <v>492</v>
       </c>
@@ -6910,7 +6948,7 @@
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="1:5" ht="15.75" customHeight="1">
       <c r="A492" s="1" t="s">
         <v>493</v>
       </c>
@@ -6919,7 +6957,7 @@
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="1:5" ht="15.75" customHeight="1">
       <c r="A493" s="1" t="s">
         <v>494</v>
       </c>
@@ -6928,20 +6966,20 @@
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="1:5" ht="15.75" customHeight="1">
       <c r="A494" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B494" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C494" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="1:5" ht="15.75" customHeight="1">
       <c r="A495" s="1" t="s">
         <v>496</v>
       </c>
@@ -6950,7 +6988,7 @@
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="1:5" ht="15.75" customHeight="1">
       <c r="A496" s="1" t="s">
         <v>497</v>
       </c>
@@ -6959,33 +6997,33 @@
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="1:5" ht="15.75" customHeight="1">
       <c r="A497" s="1" t="s">
         <v>498</v>
       </c>
       <c r="B497" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C497" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="1:5" ht="15.75" customHeight="1">
       <c r="A498" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B498" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C498" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="1:5" ht="15.75" customHeight="1">
       <c r="A499" s="1" t="s">
         <v>500</v>
       </c>
@@ -6994,1530 +7032,1530 @@
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="1:5" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="3"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="1:5" ht="15.75" customHeight="1">
       <c r="A501" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B501" s="2">
-        <f t="shared" ref="B501:E501" si="1">SUM(B3:B499)</f>
+        <f t="shared" ref="B501:E501" si="0">SUM(B3:B499)</f>
         <v>83</v>
       </c>
       <c r="C501" s="3">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="D501" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="E501" s="1">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="17"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="17"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="17"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="17"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="17"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="17"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="17"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="17"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="17"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="17"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="17"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="17"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="17"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="17"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="17"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="17"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="17"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="17"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="17"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="17"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="17"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="17"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="17"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="17"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="17"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="17"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="17"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="17"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="17"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="17"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="17"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="17"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="17"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="17"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="17"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="17"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="17"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="17"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="17"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="17"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="17"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="17"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="17"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="17"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="17"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="17"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="17"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="17"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="17"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="17"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="17"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="17"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="17"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="17"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="17"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="17"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="17"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="17"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="17"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="17"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="17"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="17"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="17"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="17"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="17"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="17"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="17"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="17"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="17"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="17"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="17"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="17"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="17"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="17"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="17"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="17"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="17"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="17"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="17"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="17"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="17"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="17"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="17"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="17"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="17"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="17"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="17"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="17"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="17"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="17"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="17"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="17"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="17"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="17"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="17"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="17"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="17"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="17"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="17"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="17"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="17"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="17"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="17"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="17"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="17"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="17"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="17"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="17"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="17"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="17"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="17"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="17"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="17"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="17"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="17"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="17"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="17"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="17"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="17"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="17"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="17"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="17"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="17"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="17"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="17"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="17"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="17"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="17"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="17"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="17"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="17"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="17"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="17"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="17"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="17"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="17"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="17"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="17"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="17"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="17"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="17"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="17"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="17"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="17"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="17"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="17"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="17"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="17"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="17"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="17"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="17"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="17"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="17"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="17"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="17"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="17"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="17"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="17"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="17"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="17"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="17"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="17"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="17"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="17"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="17"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="17"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="17"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="17"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="17"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="17"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="17"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="17"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="17"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="17"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="17"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="17"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="17"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="17"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="17"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="17"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="17"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="17"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="17"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="17"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="17"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="17"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="17"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="17"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="17"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="17"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="17"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="17"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="17"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="17"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="17"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="17"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="17"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="17"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="17"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="17"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="17"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="17"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="17"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="17"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="17"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="17"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="17"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="17"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="17"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="17"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="17"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="17"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="17"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="17"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="17"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="17"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="17"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="17"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="17"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="17"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="17"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="17"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="17"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="17"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="17"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="17"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="17"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="17"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="17"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="17"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="17"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="17"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="17"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="17"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="17"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="17"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="17"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="17"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="17"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="17"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="17"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="17"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="17"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="17"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="17"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="17"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="17"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="17"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="17"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="17"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="17"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="17"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="17"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="17"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="17"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="17"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="17"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="17"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="17"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="17"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="17"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="17"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="17"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="17"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="17"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="17"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="17"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="17"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="17"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="17"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="17"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="17"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="17"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="17"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="17"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="17"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="17"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="17"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="17"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="17"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="17"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="17"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="17"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="17"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="17"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="17"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="17"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="17"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="17"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="17"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="17"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="17"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="17"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="17"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="17"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="17"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="17"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="17"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="17"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="17"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="17"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="17"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="17"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="17"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="17"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="17"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="17"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="17"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="17"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="17"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="17"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="17"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="17"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="17"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="17"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="17"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="17"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="17"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="17"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="17"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="17"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="17"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="17"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="17"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="17"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="17"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="17"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="17"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="17"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="17"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="17"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="17"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="17"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="17"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="17"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="17"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="17"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="17"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="17"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="17"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="17"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="17"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="17"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="17"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="17"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="17"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="17"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="17"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="17"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="17"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="17"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="17"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="17"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="17"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="17"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="17"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="17"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="17"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="17"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="17"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="17"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="17"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="17"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="17"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="17"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="17"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="17"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="17"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="17"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="17"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="17"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="17"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="17"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="17"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="17"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="17"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="17"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="17"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="17"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="17"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="17"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="17"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="17"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="17"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="17"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="17"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="17"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="17"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="17"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="17"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="17"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="17"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="17"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="17"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="17"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="17"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="17"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="17"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="17"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="17"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="17"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="17"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="17"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="17"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="17"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="17"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="17"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="17"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="17"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="17"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="17"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="17"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="17"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="17"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="17"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="17"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="17"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="17"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="17"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="17"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="17"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="17"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="17"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="17"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="17"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="17"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="17"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="17"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="17"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="17"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="17"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="17"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="17"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="17"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="17"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="17"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="17"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="17"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="17"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="17"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="17"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="17"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="17"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="17"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="17"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="17"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="17"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="17"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="17"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="17"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="17"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="17"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="17"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="17"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="17"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="17"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="17"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="17"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="17"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="17"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="17"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="17"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="17"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="17"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="17"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="17"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="17"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="17"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="17"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="17"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="17"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="17"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="17"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="17"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="17"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="17"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="17"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="17"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="17"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="17"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="17"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="17"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="17"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="17"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="17"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="17"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="17"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="17"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="17"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="17"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="17"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="17"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="17"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="17"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="17"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="17"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="17"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="17"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="17"/>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B502" s="11"/>
+    </row>
+    <row r="503" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B503" s="11"/>
+    </row>
+    <row r="504" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B504" s="11"/>
+    </row>
+    <row r="505" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B505" s="11"/>
+    </row>
+    <row r="506" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B506" s="11"/>
+    </row>
+    <row r="507" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B507" s="11"/>
+    </row>
+    <row r="508" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B508" s="11"/>
+    </row>
+    <row r="509" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B509" s="11"/>
+    </row>
+    <row r="510" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B510" s="11"/>
+    </row>
+    <row r="511" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B511" s="11"/>
+    </row>
+    <row r="512" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B512" s="11"/>
+    </row>
+    <row r="513" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B513" s="11"/>
+    </row>
+    <row r="514" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B514" s="11"/>
+    </row>
+    <row r="515" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B515" s="11"/>
+    </row>
+    <row r="516" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B516" s="11"/>
+    </row>
+    <row r="517" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B517" s="11"/>
+    </row>
+    <row r="518" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B518" s="11"/>
+    </row>
+    <row r="519" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B519" s="11"/>
+    </row>
+    <row r="520" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B520" s="11"/>
+    </row>
+    <row r="521" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B521" s="11"/>
+    </row>
+    <row r="522" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B522" s="11"/>
+    </row>
+    <row r="523" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B523" s="11"/>
+    </row>
+    <row r="524" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B524" s="11"/>
+    </row>
+    <row r="525" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B525" s="11"/>
+    </row>
+    <row r="526" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B526" s="11"/>
+    </row>
+    <row r="527" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B527" s="11"/>
+    </row>
+    <row r="528" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B528" s="11"/>
+    </row>
+    <row r="529" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B529" s="11"/>
+    </row>
+    <row r="530" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B530" s="11"/>
+    </row>
+    <row r="531" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B531" s="11"/>
+    </row>
+    <row r="532" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B532" s="11"/>
+    </row>
+    <row r="533" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B533" s="11"/>
+    </row>
+    <row r="534" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B534" s="11"/>
+    </row>
+    <row r="535" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B535" s="11"/>
+    </row>
+    <row r="536" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B536" s="11"/>
+    </row>
+    <row r="537" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B537" s="11"/>
+    </row>
+    <row r="538" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B538" s="11"/>
+    </row>
+    <row r="539" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B539" s="11"/>
+    </row>
+    <row r="540" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B540" s="11"/>
+    </row>
+    <row r="541" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B541" s="11"/>
+    </row>
+    <row r="542" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B542" s="11"/>
+    </row>
+    <row r="543" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B543" s="11"/>
+    </row>
+    <row r="544" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B544" s="11"/>
+    </row>
+    <row r="545" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B545" s="11"/>
+    </row>
+    <row r="546" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B546" s="11"/>
+    </row>
+    <row r="547" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B547" s="11"/>
+    </row>
+    <row r="548" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B548" s="11"/>
+    </row>
+    <row r="549" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B549" s="11"/>
+    </row>
+    <row r="550" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B550" s="11"/>
+    </row>
+    <row r="551" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B551" s="11"/>
+    </row>
+    <row r="552" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B552" s="11"/>
+    </row>
+    <row r="553" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B553" s="11"/>
+    </row>
+    <row r="554" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B554" s="11"/>
+    </row>
+    <row r="555" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B555" s="11"/>
+    </row>
+    <row r="556" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B556" s="11"/>
+    </row>
+    <row r="557" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B557" s="11"/>
+    </row>
+    <row r="558" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B558" s="11"/>
+    </row>
+    <row r="559" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B559" s="11"/>
+    </row>
+    <row r="560" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B560" s="11"/>
+    </row>
+    <row r="561" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B561" s="11"/>
+    </row>
+    <row r="562" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B562" s="11"/>
+    </row>
+    <row r="563" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B563" s="11"/>
+    </row>
+    <row r="564" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B564" s="11"/>
+    </row>
+    <row r="565" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B565" s="11"/>
+    </row>
+    <row r="566" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B566" s="11"/>
+    </row>
+    <row r="567" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B567" s="11"/>
+    </row>
+    <row r="568" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B568" s="11"/>
+    </row>
+    <row r="569" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B569" s="11"/>
+    </row>
+    <row r="570" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B570" s="11"/>
+    </row>
+    <row r="571" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B571" s="11"/>
+    </row>
+    <row r="572" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B572" s="11"/>
+    </row>
+    <row r="573" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B573" s="11"/>
+    </row>
+    <row r="574" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B574" s="11"/>
+    </row>
+    <row r="575" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B575" s="11"/>
+    </row>
+    <row r="576" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B576" s="11"/>
+    </row>
+    <row r="577" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B577" s="11"/>
+    </row>
+    <row r="578" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B578" s="11"/>
+    </row>
+    <row r="579" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B579" s="11"/>
+    </row>
+    <row r="580" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B580" s="11"/>
+    </row>
+    <row r="581" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B581" s="11"/>
+    </row>
+    <row r="582" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B582" s="11"/>
+    </row>
+    <row r="583" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B583" s="11"/>
+    </row>
+    <row r="584" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B584" s="11"/>
+    </row>
+    <row r="585" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B585" s="11"/>
+    </row>
+    <row r="586" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B586" s="11"/>
+    </row>
+    <row r="587" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B587" s="11"/>
+    </row>
+    <row r="588" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B588" s="11"/>
+    </row>
+    <row r="589" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B589" s="11"/>
+    </row>
+    <row r="590" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B590" s="11"/>
+    </row>
+    <row r="591" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B591" s="11"/>
+    </row>
+    <row r="592" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B592" s="11"/>
+    </row>
+    <row r="593" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B593" s="11"/>
+    </row>
+    <row r="594" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B594" s="11"/>
+    </row>
+    <row r="595" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B595" s="11"/>
+    </row>
+    <row r="596" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B596" s="11"/>
+    </row>
+    <row r="597" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B597" s="11"/>
+    </row>
+    <row r="598" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B598" s="11"/>
+    </row>
+    <row r="599" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B599" s="11"/>
+    </row>
+    <row r="600" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B600" s="11"/>
+    </row>
+    <row r="601" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B601" s="11"/>
+    </row>
+    <row r="602" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B602" s="11"/>
+    </row>
+    <row r="603" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B603" s="11"/>
+    </row>
+    <row r="604" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B604" s="11"/>
+    </row>
+    <row r="605" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B605" s="11"/>
+    </row>
+    <row r="606" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B606" s="11"/>
+    </row>
+    <row r="607" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B607" s="11"/>
+    </row>
+    <row r="608" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B608" s="11"/>
+    </row>
+    <row r="609" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B609" s="11"/>
+    </row>
+    <row r="610" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B610" s="11"/>
+    </row>
+    <row r="611" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B611" s="11"/>
+    </row>
+    <row r="612" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B612" s="11"/>
+    </row>
+    <row r="613" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B613" s="11"/>
+    </row>
+    <row r="614" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B614" s="11"/>
+    </row>
+    <row r="615" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B615" s="11"/>
+    </row>
+    <row r="616" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B616" s="11"/>
+    </row>
+    <row r="617" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B617" s="11"/>
+    </row>
+    <row r="618" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B618" s="11"/>
+    </row>
+    <row r="619" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B619" s="11"/>
+    </row>
+    <row r="620" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B620" s="11"/>
+    </row>
+    <row r="621" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B621" s="11"/>
+    </row>
+    <row r="622" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B622" s="11"/>
+    </row>
+    <row r="623" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B623" s="11"/>
+    </row>
+    <row r="624" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B624" s="11"/>
+    </row>
+    <row r="625" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B625" s="11"/>
+    </row>
+    <row r="626" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B626" s="11"/>
+    </row>
+    <row r="627" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B627" s="11"/>
+    </row>
+    <row r="628" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B628" s="11"/>
+    </row>
+    <row r="629" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B629" s="11"/>
+    </row>
+    <row r="630" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B630" s="11"/>
+    </row>
+    <row r="631" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B631" s="11"/>
+    </row>
+    <row r="632" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B632" s="11"/>
+    </row>
+    <row r="633" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B633" s="11"/>
+    </row>
+    <row r="634" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B634" s="11"/>
+    </row>
+    <row r="635" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B635" s="11"/>
+    </row>
+    <row r="636" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B636" s="11"/>
+    </row>
+    <row r="637" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B637" s="11"/>
+    </row>
+    <row r="638" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B638" s="11"/>
+    </row>
+    <row r="639" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B639" s="11"/>
+    </row>
+    <row r="640" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B640" s="11"/>
+    </row>
+    <row r="641" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B641" s="11"/>
+    </row>
+    <row r="642" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B642" s="11"/>
+    </row>
+    <row r="643" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B643" s="11"/>
+    </row>
+    <row r="644" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B644" s="11"/>
+    </row>
+    <row r="645" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B645" s="11"/>
+    </row>
+    <row r="646" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B646" s="11"/>
+    </row>
+    <row r="647" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B647" s="11"/>
+    </row>
+    <row r="648" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B648" s="11"/>
+    </row>
+    <row r="649" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B649" s="11"/>
+    </row>
+    <row r="650" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B650" s="11"/>
+    </row>
+    <row r="651" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B651" s="11"/>
+    </row>
+    <row r="652" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B652" s="11"/>
+    </row>
+    <row r="653" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B653" s="11"/>
+    </row>
+    <row r="654" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B654" s="11"/>
+    </row>
+    <row r="655" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B655" s="11"/>
+    </row>
+    <row r="656" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B656" s="11"/>
+    </row>
+    <row r="657" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B657" s="11"/>
+    </row>
+    <row r="658" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B658" s="11"/>
+    </row>
+    <row r="659" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B659" s="11"/>
+    </row>
+    <row r="660" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B660" s="11"/>
+    </row>
+    <row r="661" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B661" s="11"/>
+    </row>
+    <row r="662" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B662" s="11"/>
+    </row>
+    <row r="663" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B663" s="11"/>
+    </row>
+    <row r="664" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B664" s="11"/>
+    </row>
+    <row r="665" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B665" s="11"/>
+    </row>
+    <row r="666" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B666" s="11"/>
+    </row>
+    <row r="667" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B667" s="11"/>
+    </row>
+    <row r="668" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B668" s="11"/>
+    </row>
+    <row r="669" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B669" s="11"/>
+    </row>
+    <row r="670" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B670" s="11"/>
+    </row>
+    <row r="671" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B671" s="11"/>
+    </row>
+    <row r="672" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B672" s="11"/>
+    </row>
+    <row r="673" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B673" s="11"/>
+    </row>
+    <row r="674" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B674" s="11"/>
+    </row>
+    <row r="675" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B675" s="11"/>
+    </row>
+    <row r="676" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B676" s="11"/>
+    </row>
+    <row r="677" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B677" s="11"/>
+    </row>
+    <row r="678" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B678" s="11"/>
+    </row>
+    <row r="679" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B679" s="11"/>
+    </row>
+    <row r="680" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B680" s="11"/>
+    </row>
+    <row r="681" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B681" s="11"/>
+    </row>
+    <row r="682" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B682" s="11"/>
+    </row>
+    <row r="683" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B683" s="11"/>
+    </row>
+    <row r="684" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B684" s="11"/>
+    </row>
+    <row r="685" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B685" s="11"/>
+    </row>
+    <row r="686" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B686" s="11"/>
+    </row>
+    <row r="687" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B687" s="11"/>
+    </row>
+    <row r="688" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B688" s="11"/>
+    </row>
+    <row r="689" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B689" s="11"/>
+    </row>
+    <row r="690" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B690" s="11"/>
+    </row>
+    <row r="691" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B691" s="11"/>
+    </row>
+    <row r="692" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B692" s="11"/>
+    </row>
+    <row r="693" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B693" s="11"/>
+    </row>
+    <row r="694" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B694" s="11"/>
+    </row>
+    <row r="695" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B695" s="11"/>
+    </row>
+    <row r="696" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B696" s="11"/>
+    </row>
+    <row r="697" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B697" s="11"/>
+    </row>
+    <row r="698" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B698" s="11"/>
+    </row>
+    <row r="699" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B699" s="11"/>
+    </row>
+    <row r="700" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B700" s="11"/>
+    </row>
+    <row r="701" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B701" s="11"/>
+    </row>
+    <row r="702" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B702" s="11"/>
+    </row>
+    <row r="703" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B703" s="11"/>
+    </row>
+    <row r="704" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B704" s="11"/>
+    </row>
+    <row r="705" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B705" s="11"/>
+    </row>
+    <row r="706" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B706" s="11"/>
+    </row>
+    <row r="707" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B707" s="11"/>
+    </row>
+    <row r="708" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B708" s="11"/>
+    </row>
+    <row r="709" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B709" s="11"/>
+    </row>
+    <row r="710" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B710" s="11"/>
+    </row>
+    <row r="711" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B711" s="11"/>
+    </row>
+    <row r="712" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B712" s="11"/>
+    </row>
+    <row r="713" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B713" s="11"/>
+    </row>
+    <row r="714" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B714" s="11"/>
+    </row>
+    <row r="715" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B715" s="11"/>
+    </row>
+    <row r="716" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B716" s="11"/>
+    </row>
+    <row r="717" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B717" s="11"/>
+    </row>
+    <row r="718" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B718" s="11"/>
+    </row>
+    <row r="719" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B719" s="11"/>
+    </row>
+    <row r="720" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B720" s="11"/>
+    </row>
+    <row r="721" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B721" s="11"/>
+    </row>
+    <row r="722" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B722" s="11"/>
+    </row>
+    <row r="723" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B723" s="11"/>
+    </row>
+    <row r="724" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B724" s="11"/>
+    </row>
+    <row r="725" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B725" s="11"/>
+    </row>
+    <row r="726" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B726" s="11"/>
+    </row>
+    <row r="727" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B727" s="11"/>
+    </row>
+    <row r="728" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B728" s="11"/>
+    </row>
+    <row r="729" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B729" s="11"/>
+    </row>
+    <row r="730" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B730" s="11"/>
+    </row>
+    <row r="731" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B731" s="11"/>
+    </row>
+    <row r="732" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B732" s="11"/>
+    </row>
+    <row r="733" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B733" s="11"/>
+    </row>
+    <row r="734" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B734" s="11"/>
+    </row>
+    <row r="735" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B735" s="11"/>
+    </row>
+    <row r="736" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B736" s="11"/>
+    </row>
+    <row r="737" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B737" s="11"/>
+    </row>
+    <row r="738" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B738" s="11"/>
+    </row>
+    <row r="739" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B739" s="11"/>
+    </row>
+    <row r="740" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B740" s="11"/>
+    </row>
+    <row r="741" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B741" s="11"/>
+    </row>
+    <row r="742" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B742" s="11"/>
+    </row>
+    <row r="743" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B743" s="11"/>
+    </row>
+    <row r="744" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B744" s="11"/>
+    </row>
+    <row r="745" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B745" s="11"/>
+    </row>
+    <row r="746" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B746" s="11"/>
+    </row>
+    <row r="747" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B747" s="11"/>
+    </row>
+    <row r="748" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B748" s="11"/>
+    </row>
+    <row r="749" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B749" s="11"/>
+    </row>
+    <row r="750" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B750" s="11"/>
+    </row>
+    <row r="751" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B751" s="11"/>
+    </row>
+    <row r="752" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B752" s="11"/>
+    </row>
+    <row r="753" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B753" s="11"/>
+    </row>
+    <row r="754" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B754" s="11"/>
+    </row>
+    <row r="755" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B755" s="11"/>
+    </row>
+    <row r="756" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B756" s="11"/>
+    </row>
+    <row r="757" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B757" s="11"/>
+    </row>
+    <row r="758" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B758" s="11"/>
+    </row>
+    <row r="759" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B759" s="11"/>
+    </row>
+    <row r="760" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B760" s="11"/>
+    </row>
+    <row r="761" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B761" s="11"/>
+    </row>
+    <row r="762" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B762" s="11"/>
+    </row>
+    <row r="763" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B763" s="11"/>
+    </row>
+    <row r="764" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B764" s="11"/>
+    </row>
+    <row r="765" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B765" s="11"/>
+    </row>
+    <row r="766" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B766" s="11"/>
+    </row>
+    <row r="767" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B767" s="11"/>
+    </row>
+    <row r="768" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B768" s="11"/>
+    </row>
+    <row r="769" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B769" s="11"/>
+    </row>
+    <row r="770" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B770" s="11"/>
+    </row>
+    <row r="771" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B771" s="11"/>
+    </row>
+    <row r="772" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B772" s="11"/>
+    </row>
+    <row r="773" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B773" s="11"/>
+    </row>
+    <row r="774" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B774" s="11"/>
+    </row>
+    <row r="775" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B775" s="11"/>
+    </row>
+    <row r="776" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B776" s="11"/>
+    </row>
+    <row r="777" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B777" s="11"/>
+    </row>
+    <row r="778" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B778" s="11"/>
+    </row>
+    <row r="779" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B779" s="11"/>
+    </row>
+    <row r="780" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B780" s="11"/>
+    </row>
+    <row r="781" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B781" s="11"/>
+    </row>
+    <row r="782" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B782" s="11"/>
+    </row>
+    <row r="783" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B783" s="11"/>
+    </row>
+    <row r="784" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B784" s="11"/>
+    </row>
+    <row r="785" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B785" s="11"/>
+    </row>
+    <row r="786" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B786" s="11"/>
+    </row>
+    <row r="787" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B787" s="11"/>
+    </row>
+    <row r="788" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B788" s="11"/>
+    </row>
+    <row r="789" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B789" s="11"/>
+    </row>
+    <row r="790" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B790" s="11"/>
+    </row>
+    <row r="791" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B791" s="11"/>
+    </row>
+    <row r="792" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B792" s="11"/>
+    </row>
+    <row r="793" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B793" s="11"/>
+    </row>
+    <row r="794" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B794" s="11"/>
+    </row>
+    <row r="795" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B795" s="11"/>
+    </row>
+    <row r="796" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B796" s="11"/>
+    </row>
+    <row r="797" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B797" s="11"/>
+    </row>
+    <row r="798" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B798" s="11"/>
+    </row>
+    <row r="799" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B799" s="11"/>
+    </row>
+    <row r="800" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B800" s="11"/>
+    </row>
+    <row r="801" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B801" s="11"/>
+    </row>
+    <row r="802" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B802" s="11"/>
+    </row>
+    <row r="803" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B803" s="11"/>
+    </row>
+    <row r="804" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B804" s="11"/>
+    </row>
+    <row r="805" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B805" s="11"/>
+    </row>
+    <row r="806" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B806" s="11"/>
+    </row>
+    <row r="807" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B807" s="11"/>
+    </row>
+    <row r="808" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B808" s="11"/>
+    </row>
+    <row r="809" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B809" s="11"/>
+    </row>
+    <row r="810" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B810" s="11"/>
+    </row>
+    <row r="811" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B811" s="11"/>
+    </row>
+    <row r="812" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B812" s="11"/>
+    </row>
+    <row r="813" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B813" s="11"/>
+    </row>
+    <row r="814" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B814" s="11"/>
+    </row>
+    <row r="815" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B815" s="11"/>
+    </row>
+    <row r="816" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B816" s="11"/>
+    </row>
+    <row r="817" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B817" s="11"/>
+    </row>
+    <row r="818" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B818" s="11"/>
+    </row>
+    <row r="819" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B819" s="11"/>
+    </row>
+    <row r="820" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B820" s="11"/>
+    </row>
+    <row r="821" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B821" s="11"/>
+    </row>
+    <row r="822" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B822" s="11"/>
+    </row>
+    <row r="823" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B823" s="11"/>
+    </row>
+    <row r="824" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B824" s="11"/>
+    </row>
+    <row r="825" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B825" s="11"/>
+    </row>
+    <row r="826" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B826" s="11"/>
+    </row>
+    <row r="827" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B827" s="11"/>
+    </row>
+    <row r="828" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B828" s="11"/>
+    </row>
+    <row r="829" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B829" s="11"/>
+    </row>
+    <row r="830" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B830" s="11"/>
+    </row>
+    <row r="831" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B831" s="11"/>
+    </row>
+    <row r="832" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B832" s="11"/>
+    </row>
+    <row r="833" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B833" s="11"/>
+    </row>
+    <row r="834" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B834" s="11"/>
+    </row>
+    <row r="835" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B835" s="11"/>
+    </row>
+    <row r="836" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B836" s="11"/>
+    </row>
+    <row r="837" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B837" s="11"/>
+    </row>
+    <row r="838" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B838" s="11"/>
+    </row>
+    <row r="839" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B839" s="11"/>
+    </row>
+    <row r="840" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B840" s="11"/>
+    </row>
+    <row r="841" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B841" s="11"/>
+    </row>
+    <row r="842" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B842" s="11"/>
+    </row>
+    <row r="843" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B843" s="11"/>
+    </row>
+    <row r="844" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B844" s="11"/>
+    </row>
+    <row r="845" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B845" s="11"/>
+    </row>
+    <row r="846" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B846" s="11"/>
+    </row>
+    <row r="847" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B847" s="11"/>
+    </row>
+    <row r="848" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B848" s="11"/>
+    </row>
+    <row r="849" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B849" s="11"/>
+    </row>
+    <row r="850" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B850" s="11"/>
+    </row>
+    <row r="851" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B851" s="11"/>
+    </row>
+    <row r="852" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B852" s="11"/>
+    </row>
+    <row r="853" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B853" s="11"/>
+    </row>
+    <row r="854" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B854" s="11"/>
+    </row>
+    <row r="855" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B855" s="11"/>
+    </row>
+    <row r="856" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B856" s="11"/>
+    </row>
+    <row r="857" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B857" s="11"/>
+    </row>
+    <row r="858" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B858" s="11"/>
+    </row>
+    <row r="859" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B859" s="11"/>
+    </row>
+    <row r="860" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B860" s="11"/>
+    </row>
+    <row r="861" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B861" s="11"/>
+    </row>
+    <row r="862" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B862" s="11"/>
+    </row>
+    <row r="863" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B863" s="11"/>
+    </row>
+    <row r="864" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B864" s="11"/>
+    </row>
+    <row r="865" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B865" s="11"/>
+    </row>
+    <row r="866" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B866" s="11"/>
+    </row>
+    <row r="867" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B867" s="11"/>
+    </row>
+    <row r="868" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B868" s="11"/>
+    </row>
+    <row r="869" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B869" s="11"/>
+    </row>
+    <row r="870" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B870" s="11"/>
+    </row>
+    <row r="871" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B871" s="11"/>
+    </row>
+    <row r="872" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B872" s="11"/>
+    </row>
+    <row r="873" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B873" s="11"/>
+    </row>
+    <row r="874" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B874" s="11"/>
+    </row>
+    <row r="875" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B875" s="11"/>
+    </row>
+    <row r="876" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B876" s="11"/>
+    </row>
+    <row r="877" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B877" s="11"/>
+    </row>
+    <row r="878" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B878" s="11"/>
+    </row>
+    <row r="879" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B879" s="11"/>
+    </row>
+    <row r="880" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B880" s="11"/>
+    </row>
+    <row r="881" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B881" s="11"/>
+    </row>
+    <row r="882" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B882" s="11"/>
+    </row>
+    <row r="883" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B883" s="11"/>
+    </row>
+    <row r="884" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B884" s="11"/>
+    </row>
+    <row r="885" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B885" s="11"/>
+    </row>
+    <row r="886" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B886" s="11"/>
+    </row>
+    <row r="887" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B887" s="11"/>
+    </row>
+    <row r="888" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B888" s="11"/>
+    </row>
+    <row r="889" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B889" s="11"/>
+    </row>
+    <row r="890" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B890" s="11"/>
+    </row>
+    <row r="891" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B891" s="11"/>
+    </row>
+    <row r="892" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B892" s="11"/>
+    </row>
+    <row r="893" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B893" s="11"/>
+    </row>
+    <row r="894" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B894" s="11"/>
+    </row>
+    <row r="895" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B895" s="11"/>
+    </row>
+    <row r="896" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B896" s="11"/>
+    </row>
+    <row r="897" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B897" s="11"/>
+    </row>
+    <row r="898" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B898" s="11"/>
+    </row>
+    <row r="899" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B899" s="11"/>
+    </row>
+    <row r="900" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B900" s="11"/>
+    </row>
+    <row r="901" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B901" s="11"/>
+    </row>
+    <row r="902" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B902" s="11"/>
+    </row>
+    <row r="903" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B903" s="11"/>
+    </row>
+    <row r="904" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B904" s="11"/>
+    </row>
+    <row r="905" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B905" s="11"/>
+    </row>
+    <row r="906" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B906" s="11"/>
+    </row>
+    <row r="907" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B907" s="11"/>
+    </row>
+    <row r="908" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B908" s="11"/>
+    </row>
+    <row r="909" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B909" s="11"/>
+    </row>
+    <row r="910" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B910" s="11"/>
+    </row>
+    <row r="911" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B911" s="11"/>
+    </row>
+    <row r="912" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B912" s="11"/>
+    </row>
+    <row r="913" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B913" s="11"/>
+    </row>
+    <row r="914" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B914" s="11"/>
+    </row>
+    <row r="915" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B915" s="11"/>
+    </row>
+    <row r="916" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B916" s="11"/>
+    </row>
+    <row r="917" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B917" s="11"/>
+    </row>
+    <row r="918" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B918" s="11"/>
+    </row>
+    <row r="919" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B919" s="11"/>
+    </row>
+    <row r="920" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B920" s="11"/>
+    </row>
+    <row r="921" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B921" s="11"/>
+    </row>
+    <row r="922" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B922" s="11"/>
+    </row>
+    <row r="923" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B923" s="11"/>
+    </row>
+    <row r="924" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B924" s="11"/>
+    </row>
+    <row r="925" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B925" s="11"/>
+    </row>
+    <row r="926" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B926" s="11"/>
+    </row>
+    <row r="927" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B927" s="11"/>
+    </row>
+    <row r="928" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B928" s="11"/>
+    </row>
+    <row r="929" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B929" s="11"/>
+    </row>
+    <row r="930" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B930" s="11"/>
+    </row>
+    <row r="931" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B931" s="11"/>
+    </row>
+    <row r="932" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B932" s="11"/>
+    </row>
+    <row r="933" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B933" s="11"/>
+    </row>
+    <row r="934" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B934" s="11"/>
+    </row>
+    <row r="935" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B935" s="11"/>
+    </row>
+    <row r="936" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B936" s="11"/>
+    </row>
+    <row r="937" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B937" s="11"/>
+    </row>
+    <row r="938" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B938" s="11"/>
+    </row>
+    <row r="939" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B939" s="11"/>
+    </row>
+    <row r="940" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B940" s="11"/>
+    </row>
+    <row r="941" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B941" s="11"/>
+    </row>
+    <row r="942" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B942" s="11"/>
+    </row>
+    <row r="943" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B943" s="11"/>
+    </row>
+    <row r="944" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B944" s="11"/>
+    </row>
+    <row r="945" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B945" s="11"/>
+    </row>
+    <row r="946" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B946" s="11"/>
+    </row>
+    <row r="947" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B947" s="11"/>
+    </row>
+    <row r="948" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B948" s="11"/>
+    </row>
+    <row r="949" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B949" s="11"/>
+    </row>
+    <row r="950" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B950" s="11"/>
+    </row>
+    <row r="951" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B951" s="11"/>
+    </row>
+    <row r="952" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B952" s="11"/>
+    </row>
+    <row r="953" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B953" s="11"/>
+    </row>
+    <row r="954" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B954" s="11"/>
+    </row>
+    <row r="955" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B955" s="11"/>
+    </row>
+    <row r="956" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B956" s="11"/>
+    </row>
+    <row r="957" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B957" s="11"/>
+    </row>
+    <row r="958" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B958" s="11"/>
+    </row>
+    <row r="959" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B959" s="11"/>
+    </row>
+    <row r="960" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B960" s="11"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B961" s="11"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B962" s="11"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B963" s="11"/>
+    </row>
+    <row r="964" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B964" s="11"/>
+    </row>
+    <row r="965" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B965" s="11"/>
+    </row>
+    <row r="966" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B966" s="11"/>
+    </row>
+    <row r="967" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B967" s="11"/>
+    </row>
+    <row r="968" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B968" s="11"/>
+    </row>
+    <row r="969" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B969" s="11"/>
+    </row>
+    <row r="970" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B970" s="11"/>
+    </row>
+    <row r="971" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B971" s="11"/>
+    </row>
+    <row r="972" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B972" s="11"/>
+    </row>
+    <row r="973" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B973" s="11"/>
+    </row>
+    <row r="974" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B974" s="11"/>
+    </row>
+    <row r="975" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B975" s="11"/>
+    </row>
+    <row r="976" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B976" s="11"/>
+    </row>
+    <row r="977" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B977" s="11"/>
+    </row>
+    <row r="978" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B978" s="11"/>
+    </row>
+    <row r="979" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B979" s="11"/>
+    </row>
+    <row r="980" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B980" s="11"/>
+    </row>
+    <row r="981" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B981" s="11"/>
+    </row>
+    <row r="982" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B982" s="11"/>
+    </row>
+    <row r="983" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B983" s="11"/>
+    </row>
+    <row r="984" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B984" s="11"/>
+    </row>
+    <row r="985" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B985" s="11"/>
+    </row>
+    <row r="986" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B986" s="11"/>
+    </row>
+    <row r="987" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B987" s="11"/>
+    </row>
+    <row r="988" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B988" s="11"/>
+    </row>
+    <row r="989" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B989" s="11"/>
+    </row>
+    <row r="990" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B990" s="11"/>
+    </row>
+    <row r="991" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B991" s="11"/>
+    </row>
+    <row r="992" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B992" s="11"/>
+    </row>
+    <row r="993" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B993" s="11"/>
+    </row>
+    <row r="994" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B994" s="11"/>
+    </row>
+    <row r="995" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B995" s="11"/>
+    </row>
+    <row r="996" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B996" s="11"/>
+    </row>
+    <row r="997" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B997" s="11"/>
+    </row>
+    <row r="998" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B998" s="11"/>
+    </row>
+    <row r="999" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B999" s="11"/>
+    </row>
+    <row r="1000" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1000" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8525,9 +8563,7 @@
     <mergeCell ref="C341:C342"/>
     <mergeCell ref="D341:D342"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/old_vs_new_records.xlsx
+++ b/old_vs_new_records.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D6D563-1EE9-4496-BC91-0D1551B0CDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2298ED-2172-48CA-AA52-237460D1D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1758,7 +1758,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1784,8 +1784,14 @@
       <color theme="1"/>
       <name val="Marker Felt"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1826,12 +1832,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF1C232"/>
         <bgColor rgb="FFF1C232"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1918,7 +1918,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="H439" sqref="H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2489,10 +2489,10 @@
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="16">
-        <v>1</v>
-      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
@@ -2642,10 +2642,10 @@
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
@@ -3474,7 +3474,7 @@
       <c r="B135" s="2">
         <v>1</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C135" s="16">
         <v>1</v>
       </c>
       <c r="D135" s="1"/>
@@ -3485,9 +3485,13 @@
         <v>137</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
+      <c r="E136" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
@@ -3507,9 +3511,13 @@
         <v>139</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3">
+        <v>1</v>
+      </c>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
+      <c r="E138" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
@@ -4621,9 +4629,13 @@
         <v>257</v>
       </c>
       <c r="B256" s="2"/>
-      <c r="C256" s="3"/>
+      <c r="C256" s="3">
+        <v>1</v>
+      </c>
       <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
+      <c r="E256" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="257" spans="1:5" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
@@ -5570,10 +5582,10 @@
       <c r="B351" s="2">
         <v>1</v>
       </c>
-      <c r="C351" s="3"/>
-      <c r="D351" s="7">
-        <v>1</v>
-      </c>
+      <c r="C351" s="3">
+        <v>1</v>
+      </c>
+      <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
     <row r="352" spans="1:5" ht="15.75" customHeight="1">
@@ -6430,10 +6442,10 @@
       <c r="B439" s="2">
         <v>1</v>
       </c>
-      <c r="C439" s="3"/>
-      <c r="D439" s="7">
-        <v>1</v>
-      </c>
+      <c r="C439" s="3">
+        <v>1</v>
+      </c>
+      <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
     <row r="440" spans="1:5" ht="15.75" customHeight="1">
@@ -7049,15 +7061,15 @@
       </c>
       <c r="C501" s="3">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D501" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E501" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1">

--- a/old_vs_new_records.xlsx
+++ b/old_vs_new_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2298ED-2172-48CA-AA52-237460D1D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC9AB1-5F91-4715-AEAB-6CB2DD9849D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1895,7 +1895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1908,6 +1908,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1918,7 +1919,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2136,24 +2137,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="H439" sqref="H439"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="H506" sqref="H506"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2166,14 +2167,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2207,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2215,7 +2216,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2224,7 +2225,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2243,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2251,7 +2252,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2260,7 +2261,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2270,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2279,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2288,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2297,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2306,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2314,7 +2315,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2333,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2620,10 +2621,10 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="17"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
@@ -3474,7 +3475,7 @@
       <c r="B135" s="2">
         <v>1</v>
       </c>
-      <c r="C135" s="16">
+      <c r="C135" s="12">
         <v>1</v>
       </c>
       <c r="D135" s="1"/>
@@ -5477,11 +5478,11 @@
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B341" s="12">
-        <v>1</v>
-      </c>
-      <c r="C341" s="14"/>
-      <c r="D341" s="15">
+      <c r="B341" s="13">
+        <v>1</v>
+      </c>
+      <c r="C341" s="15"/>
+      <c r="D341" s="16">
         <v>1</v>
       </c>
       <c r="E341" s="1"/>
@@ -5490,9 +5491,9 @@
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B342" s="13"/>
-      <c r="C342" s="13"/>
-      <c r="D342" s="13"/>
+      <c r="B342" s="14"/>
+      <c r="C342" s="14"/>
+      <c r="D342" s="14"/>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1">
@@ -7061,11 +7062,11 @@
       </c>
       <c r="C501" s="3">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D501" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E501" s="1">
         <f t="shared" si="0"/>

--- a/old_vs_new_records.xlsx
+++ b/old_vs_new_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC9AB1-5F91-4715-AEAB-6CB2DD9849D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669CD885-AA25-4C6F-A263-378384471DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1791,7 +1791,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1832,6 +1832,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF1C232"/>
         <bgColor rgb="FFF1C232"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1895,7 +1901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1920,6 +1926,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2137,24 +2144,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="H506" sqref="H506"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" customWidth="1"/>
-    <col min="9" max="26" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2167,14 +2174,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="14.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2207,7 +2214,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="14.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2223,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="14.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2225,7 +2232,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2234,7 +2241,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2243,7 +2250,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2252,7 +2259,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2268,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="14.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +2277,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="14.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +2286,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2288,7 +2295,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2304,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="14.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +2313,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" ht="14.4">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2315,7 +2322,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="14.4">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2324,7 +2331,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="14.4">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2340,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="14.4">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2624,7 +2631,7 @@
       <c r="C45" s="3">
         <v>1</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
@@ -3410,9 +3417,13 @@
         <v>129</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
+      <c r="E128" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
@@ -4988,10 +4999,10 @@
       <c r="B292" s="2">
         <v>1</v>
       </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="7">
-        <v>1</v>
-      </c>
+      <c r="C292" s="3">
+        <v>1</v>
+      </c>
+      <c r="D292" s="17"/>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1">
@@ -7062,15 +7073,15 @@
       </c>
       <c r="C501" s="3">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D501" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E501" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="502" spans="1:5" ht="15.75" customHeight="1">

--- a/old_vs_new_records.xlsx
+++ b/old_vs_new_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\Mora-Bird-Diversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669CD885-AA25-4C6F-A263-378384471DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58BB59-D447-4D7A-B0AB-742FF417AC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1791,7 +1791,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1838,6 +1838,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1915,6 +1921,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1925,8 +1932,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2144,24 +2150,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="26" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2174,14 +2180,14 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14.4">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2220,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14.4">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2229,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14.4">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2232,7 +2238,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="14.4">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2256,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="14.4">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -2259,7 +2265,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="14.4">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2268,7 +2274,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="14.4">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2277,7 +2283,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="14.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2292,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="14.4">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +2301,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="14.4">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2304,7 +2310,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="14.4">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +2319,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14.4">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2322,7 +2328,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="14.4">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2331,7 +2337,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="14.4">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2340,7 +2346,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.4">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="18">
+      <c r="E128" s="13">
         <v>1</v>
       </c>
     </row>
@@ -5002,7 +5008,7 @@
       <c r="C292" s="3">
         <v>1</v>
       </c>
-      <c r="D292" s="17"/>
+      <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" ht="15.75" customHeight="1">
@@ -5489,11 +5495,11 @@
       <c r="A341" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B341" s="13">
-        <v>1</v>
-      </c>
-      <c r="C341" s="15"/>
-      <c r="D341" s="16">
+      <c r="B341" s="14">
+        <v>1</v>
+      </c>
+      <c r="C341" s="16"/>
+      <c r="D341" s="17">
         <v>1</v>
       </c>
       <c r="E341" s="1"/>
@@ -5502,9 +5508,9 @@
       <c r="A342" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B342" s="14"/>
-      <c r="C342" s="14"/>
-      <c r="D342" s="14"/>
+      <c r="B342" s="15"/>
+      <c r="C342" s="15"/>
+      <c r="D342" s="15"/>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" ht="15.75" customHeight="1">
@@ -5825,10 +5831,10 @@
       <c r="B374" s="2">
         <v>1</v>
       </c>
-      <c r="C374" s="3"/>
-      <c r="D374" s="7">
-        <v>1</v>
-      </c>
+      <c r="C374" s="3">
+        <v>1</v>
+      </c>
+      <c r="D374" s="18"/>
       <c r="E374" s="1"/>
     </row>
     <row r="375" spans="1:5" ht="15.75" customHeight="1">
@@ -7073,11 +7079,11 @@
       </c>
       <c r="C501" s="3">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D501" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E501" s="1">
         <f t="shared" si="0"/>
